--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Export this as TSV" sheetId="1" r:id="rId1"/>
+    <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
     <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
     <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
     <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="gdna_fragmentat-_assurance list" sheetId="5" r:id="rId5"/>
+    <sheet name="gdna_fragmenta...assurance list" sheetId="5" r:id="rId5"/>
     <sheet name="dna_assay_input_unit list" sheetId="6" r:id="rId6"/>
     <sheet name="library_layout list" sheetId="7" r:id="rId7"/>
     <sheet name="library_final_yield_unit list" sheetId="8" r:id="rId8"/>
@@ -888,7 +888,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -986,47 +989,47 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: WGS." sqref="J2:J1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
-      <formula1>'gdna_fragmentat-_assurance list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="O2:O1048576">
+      <formula1>'gdna_fragmenta...assurance list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ug." sqref="Q2:Q1048576">
       <formula1>'dna_assay_input_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="T2:T1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="W2:W1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -191,7 +191,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>An acquisition_instrument is the device that contains the signal detection hardware and signal processing software. Assays can generate signals such as light of various intensities or color or signals representing molecular mass.</t>
+          <t>An acquisition instrument is the device that contains the signal detection hardware and signal processing software. Assays generate signals such as light of various intensities or color or signals representing the molecular mass.</t>
         </r>
       </text>
     </comment>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="gdna_fragmenta...assurance list" sheetId="5" r:id="rId5"/>
-    <sheet name="dna_assay_input_unit list" sheetId="6" r:id="rId6"/>
-    <sheet name="library_layout list" sheetId="7" r:id="rId7"/>
-    <sheet name="library_final_yield_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="gdna_fragmenta...assurance list" sheetId="6" r:id="rId6"/>
+    <sheet name="dna_assay_input_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="library_layout list" sheetId="8" r:id="rId8"/>
+    <sheet name="library_final_yield_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -35,11 +36,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +435,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -886,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -895,33 +915,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -933,103 +953,109 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: WGS." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: WGS." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="P2:P1048576">
       <formula1>'gdna_fragmenta...assurance list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ug." sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ug." sqref="R2:R1048576">
       <formula1>'dna_assay_input_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="U2:U1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="W2:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="X2:X1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Y2:Y1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1049,7 +1075,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1095,6 +1121,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1103,12 +1147,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1126,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1144,12 +1188,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1167,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="gdna_fragmenta...assurance list" sheetId="5" r:id="rId5"/>
-    <sheet name="dna_assay_input_unit list" sheetId="6" r:id="rId6"/>
-    <sheet name="library_layout list" sheetId="7" r:id="rId7"/>
-    <sheet name="library_final_yield_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="gdna_fragmenta...assurance list" sheetId="6" r:id="rId6"/>
+    <sheet name="dna_assay_input_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="library_layout list" sheetId="8" r:id="rId8"/>
+    <sheet name="library_final_yield_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -35,11 +36,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -273,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +448,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -886,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -895,57 +931,57 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>23</v>
@@ -954,16 +990,16 @@
         <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>32</v>
@@ -972,64 +1008,73 @@
         <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="I2:I1048576">
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: sequence." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: WGS." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: WGS." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="O2:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="Q2:Q1048576">
       <formula1>'gdna_fragmenta...assurance list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ug." sqref="Q2:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ug." sqref="S2:S1048576">
       <formula1>'dna_assay_input_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: single-end / paired-end." sqref="V2:V1048576">
       <formula1>'library_layout list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="V2:V1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="W2:W1048576">
-      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AA2:AA1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="Y2:Y1048576">
+      <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AB2:AB1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AD2:AD1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
@@ -1049,7 +1094,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1112,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1094,6 +1139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1103,12 +1166,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1126,7 +1189,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1144,12 +1207,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1167,7 +1230,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -400,7 +400,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Percent of bases with Quality scores above Q30</t>
+          <t>Q30 is the weighted average of all the reads (e.g. # bases UMI * q30 UMI + # bases R2 * q30 R2 + ...)</t>
         </r>
       </text>
     </comment>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -205,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -12,10 +12,11 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="gdna_fragmenta...assurance list" sheetId="6" r:id="rId6"/>
-    <sheet name="dna_assay_input_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="library_layout list" sheetId="8" r:id="rId8"/>
-    <sheet name="library_final_yield_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="gdna_fragmenta...assurance list" sheetId="7" r:id="rId7"/>
+    <sheet name="dna_assay_input_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="library_layout list" sheetId="9" r:id="rId9"/>
+    <sheet name="library_final_yield_unit list" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -448,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>version</t>
   </si>
@@ -502,6 +503,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -975,58 +982,58 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1043,8 +1050,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: DNA." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Pass / Fail." sqref="Q2:Q1048576">
       <formula1>'gdna_fragmenta...assurance list'!$A$1:$A$2</formula1>
@@ -1081,6 +1088,24 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1166,12 +1191,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1180,6 +1205,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1189,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1207,30 +1255,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -166,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>

--- a/docs/wgs/wgs-metadata.xlsx
+++ b/docs/wgs/wgs-metadata.xlsx
@@ -361,7 +361,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average size of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
+          <t>Average size in basepairs (bp) of sequencing library fragments estimated via gel electrophoresis or bioanalyzer/tapestation.</t>
         </r>
       </text>
     </comment>
@@ -1066,9 +1066,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: ng." sqref="Y2:Y1048576">
       <formula1>'library_final_yield_unit list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Z2:Z1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Z2:Z1048576">
+      <formula1>-2147483647</formula1>
+      <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="AC2:AC1048576">
       <formula1>-1e+307</formula1>
